--- a/sharedata/exceldata/excel/all/C-充值表.xlsx
+++ b/sharedata/exceldata/excel/all/C-充值表.xlsx
@@ -2049,7 +2049,7 @@
   <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/sharedata/exceldata/excel/all/C-充值表.xlsx
+++ b/sharedata/exceldata/excel/all/C-充值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="充值表" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+  <si>
+    <t>SDK支付使用，不要修改</t>
+  </si>
   <si>
     <t>填写备注</t>
   </si>
@@ -518,7 +521,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -547,6 +550,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -721,16 +732,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFCC00CC"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1229,13 +1240,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1250,16 +1261,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,17 +1282,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,126 +1301,129 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1421,7 +1432,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyFill="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1433,16 +1444,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="1">
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="1">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1460,19 +1471,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1484,111 +1495,111 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="1">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="1">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="1">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="85"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="85" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="88" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="87" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="85" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1614,6 +1625,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,8 +1693,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="59" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="60" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="61" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="62"/>
-    <cellStyle name="判断逻辑" xfId="63"/>
+    <cellStyle name="判断逻辑" xfId="62"/>
+    <cellStyle name="适中 2" xfId="63"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="64" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="65" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="66"/>
@@ -1706,8 +1718,8 @@
     <cellStyle name="常规 3 3" xfId="84"/>
     <cellStyle name="常规 4" xfId="85"/>
     <cellStyle name="常规 4 2" xfId="86"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="87"/>
-    <cellStyle name="常规 4 2 3" xfId="88"/>
+    <cellStyle name="常规 4 2 3" xfId="87"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="88"/>
     <cellStyle name="常规 5" xfId="89"/>
     <cellStyle name="常规 6 2" xfId="90"/>
     <cellStyle name="常规 6 3" xfId="91"/>
@@ -2046,10 +2058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2068,6 +2080,17 @@
     <col min="12" max="12" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="10:12">
+      <c r="J1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
@@ -2080,122 +2103,122 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -2203,7 +2226,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2216,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8">
         <v>6</v>
@@ -2231,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>36</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2252,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8">
         <v>18</v>
@@ -2267,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>36</v>
+      <c r="K8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2288,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8">
         <v>30</v>
@@ -2303,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>36</v>
+      <c r="K9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2324,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8">
         <v>68</v>
@@ -2339,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>36</v>
+      <c r="K10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2360,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8">
         <v>128</v>
@@ -2375,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>36</v>
+      <c r="K11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2396,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8">
         <v>198</v>
@@ -2411,19 +2434,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>36</v>
+      <c r="K12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2432,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8">
         <v>328</v>
@@ -2447,19 +2470,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>36</v>
+      <c r="K13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2468,7 +2491,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8">
         <v>648</v>
@@ -2483,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>36</v>
+      <c r="K14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
